--- a/Code/Results/Cases/Case_5_226/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_226/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.014793374973212</v>
+        <v>1.038885193359007</v>
       </c>
       <c r="D2">
-        <v>1.034211209555908</v>
+        <v>1.047474620495898</v>
       </c>
       <c r="E2">
-        <v>1.019172461827636</v>
+        <v>1.037486875509379</v>
       </c>
       <c r="F2">
-        <v>1.034729072710588</v>
+        <v>1.054512006590757</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053212512064585</v>
+        <v>1.042805451800082</v>
       </c>
       <c r="J2">
-        <v>1.03654044557004</v>
+        <v>1.04398020588261</v>
       </c>
       <c r="K2">
-        <v>1.045213647044501</v>
+        <v>1.050237156097804</v>
       </c>
       <c r="L2">
-        <v>1.030371002511378</v>
+        <v>1.040277620747508</v>
       </c>
       <c r="M2">
-        <v>1.045724884230251</v>
+        <v>1.057255013447404</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.019128686373225</v>
+        <v>1.039795956732021</v>
       </c>
       <c r="D3">
-        <v>1.037672646907704</v>
+        <v>1.048222821768606</v>
       </c>
       <c r="E3">
-        <v>1.022636358945575</v>
+        <v>1.03826045660304</v>
       </c>
       <c r="F3">
-        <v>1.038862553721333</v>
+        <v>1.05543656121392</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054779708423337</v>
+        <v>1.04307085780012</v>
       </c>
       <c r="J3">
-        <v>1.039111127611355</v>
+        <v>1.044536140879971</v>
       </c>
       <c r="K3">
-        <v>1.047845164115745</v>
+        <v>1.050797373964917</v>
       </c>
       <c r="L3">
-        <v>1.032987569631548</v>
+        <v>1.040861115461958</v>
       </c>
       <c r="M3">
-        <v>1.049021203053182</v>
+        <v>1.057992541464523</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.021878433148088</v>
+        <v>1.040385722909166</v>
       </c>
       <c r="D4">
-        <v>1.039870366882375</v>
+        <v>1.04870729900636</v>
       </c>
       <c r="E4">
-        <v>1.024839044559225</v>
+        <v>1.038761763015982</v>
       </c>
       <c r="F4">
-        <v>1.041489338223864</v>
+        <v>1.056035616432426</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055763541303785</v>
+        <v>1.043241465887922</v>
       </c>
       <c r="J4">
-        <v>1.040738573826008</v>
+        <v>1.04489567114256</v>
       </c>
       <c r="K4">
-        <v>1.049510275763473</v>
+        <v>1.051159547367155</v>
       </c>
       <c r="L4">
-        <v>1.034646649475778</v>
+        <v>1.041238763503105</v>
       </c>
       <c r="M4">
-        <v>1.051111539716847</v>
+        <v>1.058469947131738</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.023021590630308</v>
+        <v>1.040633765116262</v>
       </c>
       <c r="D5">
-        <v>1.040784525275953</v>
+        <v>1.04891105341903</v>
       </c>
       <c r="E5">
-        <v>1.025756087573418</v>
+        <v>1.038972689765685</v>
       </c>
       <c r="F5">
-        <v>1.042582557965354</v>
+        <v>1.05628765084645</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056170070817133</v>
+        <v>1.043312918977299</v>
       </c>
       <c r="J5">
-        <v>1.041414391912987</v>
+        <v>1.045046769503286</v>
       </c>
       <c r="K5">
-        <v>1.050201525732258</v>
+        <v>1.051311726152447</v>
       </c>
       <c r="L5">
-        <v>1.035336223853418</v>
+        <v>1.041397546672969</v>
       </c>
       <c r="M5">
-        <v>1.051980426132857</v>
+        <v>1.058670689250998</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.023212791726783</v>
+        <v>1.040675418588942</v>
       </c>
       <c r="D6">
-        <v>1.040937452632312</v>
+        <v>1.04894526934122</v>
       </c>
       <c r="E6">
-        <v>1.025909545712233</v>
+        <v>1.03900811566296</v>
       </c>
       <c r="F6">
-        <v>1.042765475217231</v>
+        <v>1.056329979725796</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056237918821334</v>
+        <v>1.043324900380952</v>
       </c>
       <c r="J6">
-        <v>1.041527381481857</v>
+        <v>1.045072136728648</v>
       </c>
       <c r="K6">
-        <v>1.050317082884434</v>
+        <v>1.051337272980572</v>
       </c>
       <c r="L6">
-        <v>1.035451549780412</v>
+        <v>1.041424208202201</v>
       </c>
       <c r="M6">
-        <v>1.052125744653036</v>
+        <v>1.058704397089772</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.021893757932672</v>
+        <v>1.040389036852083</v>
       </c>
       <c r="D7">
-        <v>1.039882619877403</v>
+        <v>1.048710021269555</v>
       </c>
       <c r="E7">
-        <v>1.024851332980506</v>
+        <v>1.038764580733797</v>
       </c>
       <c r="F7">
-        <v>1.041503988932251</v>
+        <v>1.056038983377611</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055769000949682</v>
+        <v>1.043242421711505</v>
       </c>
       <c r="J7">
-        <v>1.040747636670289</v>
+        <v>1.04489769031679</v>
       </c>
       <c r="K7">
-        <v>1.049519546386191</v>
+        <v>1.051161581098988</v>
       </c>
       <c r="L7">
-        <v>1.034655894344316</v>
+        <v>1.041240885094674</v>
       </c>
       <c r="M7">
-        <v>1.051123188286965</v>
+        <v>1.058472629299155</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.016270280035469</v>
+        <v>1.039192898017556</v>
       </c>
       <c r="D8">
-        <v>1.035389916710207</v>
+        <v>1.047727407144432</v>
       </c>
       <c r="E8">
-        <v>1.020351295023218</v>
+        <v>1.037748155157599</v>
       </c>
       <c r="F8">
-        <v>1.036136142378985</v>
+        <v>1.054824296255552</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053748519970803</v>
+        <v>1.042895380024912</v>
       </c>
       <c r="J8">
-        <v>1.037416817741758</v>
+        <v>1.044168126856006</v>
       </c>
       <c r="K8">
-        <v>1.046110932958261</v>
+        <v>1.050426550982895</v>
       </c>
       <c r="L8">
-        <v>1.03126247471451</v>
+        <v>1.040474796635115</v>
       </c>
       <c r="M8">
-        <v>1.046847901640095</v>
+        <v>1.057504227332396</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.005914741443516</v>
+        <v>1.03708858019922</v>
       </c>
       <c r="D9">
-        <v>1.02713654984352</v>
+        <v>1.045998591054991</v>
       </c>
       <c r="E9">
-        <v>1.012111358765865</v>
+        <v>1.035962875018762</v>
       </c>
       <c r="F9">
-        <v>1.026293011666511</v>
+        <v>1.052690105431475</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049948554526347</v>
+        <v>1.042275243440337</v>
       </c>
       <c r="J9">
-        <v>1.03126035003046</v>
+        <v>1.042881080812116</v>
       </c>
       <c r="K9">
-        <v>1.039804180131443</v>
+        <v>1.049128893447743</v>
       </c>
       <c r="L9">
-        <v>1.025010946911127</v>
+        <v>1.039125573907679</v>
       </c>
       <c r="M9">
-        <v>1.03897343508576</v>
+        <v>1.055799182211702</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9986794481849089</v>
+        <v>1.035688076950097</v>
       </c>
       <c r="D10">
-        <v>1.021386484991283</v>
+        <v>1.044847931657325</v>
       </c>
       <c r="E10">
-        <v>1.006388742786967</v>
+        <v>1.034776669358332</v>
       </c>
       <c r="F10">
-        <v>1.019446204052079</v>
+        <v>1.051271597099869</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047242325693797</v>
+        <v>1.041856072786135</v>
       </c>
       <c r="J10">
-        <v>1.026945557841247</v>
+        <v>1.042022128161583</v>
       </c>
       <c r="K10">
-        <v>1.035380045665397</v>
+        <v>1.048262212642426</v>
       </c>
       <c r="L10">
-        <v>1.020643596705971</v>
+        <v>1.038226644450435</v>
       </c>
       <c r="M10">
-        <v>1.033473008946536</v>
+        <v>1.054663504951023</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9954602187334008</v>
+        <v>1.035082220986127</v>
       </c>
       <c r="D11">
-        <v>1.018832702314899</v>
+        <v>1.044350148371967</v>
       </c>
       <c r="E11">
-        <v>1.003851422695144</v>
+        <v>1.034263991724344</v>
       </c>
       <c r="F11">
-        <v>1.01640759700342</v>
+        <v>1.050658402151112</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046026636190906</v>
+        <v>1.041673212433681</v>
       </c>
       <c r="J11">
-        <v>1.025023085098521</v>
+        <v>1.041649986192983</v>
       </c>
       <c r="K11">
-        <v>1.033407991004758</v>
+        <v>1.047886570081208</v>
       </c>
       <c r="L11">
-        <v>1.018701070496898</v>
+        <v>1.037837542904706</v>
       </c>
       <c r="M11">
-        <v>1.031026584409018</v>
+        <v>1.054172001844733</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9942507890525876</v>
+        <v>1.034857266005836</v>
       </c>
       <c r="D12">
-        <v>1.017874031301448</v>
+        <v>1.044165320004256</v>
       </c>
       <c r="E12">
-        <v>1.002899571923385</v>
+        <v>1.034073705699175</v>
       </c>
       <c r="F12">
-        <v>1.015267241941267</v>
+        <v>1.050430790222488</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.0455682220296</v>
+        <v>1.041605086749761</v>
       </c>
       <c r="J12">
-        <v>1.024300474702835</v>
+        <v>1.041511725570838</v>
       </c>
       <c r="K12">
-        <v>1.032666621955868</v>
+        <v>1.047746986076883</v>
       </c>
       <c r="L12">
-        <v>1.017971430753104</v>
+        <v>1.037693035519498</v>
       </c>
       <c r="M12">
-        <v>1.030107676600257</v>
+        <v>1.053989474915377</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9945108459189431</v>
+        <v>1.034905515662821</v>
       </c>
       <c r="D13">
-        <v>1.018080133657653</v>
+        <v>1.044204963103031</v>
       </c>
       <c r="E13">
-        <v>1.003104179100228</v>
+        <v>1.034114516100081</v>
       </c>
       <c r="F13">
-        <v>1.015512390287095</v>
+        <v>1.050479606672133</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045666867920307</v>
+        <v>1.041619709125786</v>
       </c>
       <c r="J13">
-        <v>1.024455869018313</v>
+        <v>1.041541384308975</v>
       </c>
       <c r="K13">
-        <v>1.032826055625243</v>
+        <v>1.047776929729502</v>
       </c>
       <c r="L13">
-        <v>1.018128313686726</v>
+        <v>1.037724031819579</v>
       </c>
       <c r="M13">
-        <v>1.030305254855053</v>
+        <v>1.054028625766946</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9953605298600029</v>
+        <v>1.035063624358239</v>
       </c>
       <c r="D14">
-        <v>1.018753666786257</v>
+        <v>1.044334868954852</v>
       </c>
       <c r="E14">
-        <v>1.003772936435107</v>
+        <v>1.034248259650136</v>
       </c>
       <c r="F14">
-        <v>1.016313576672627</v>
+        <v>1.050639584487771</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045988884903439</v>
+        <v>1.041667585285164</v>
       </c>
       <c r="J14">
-        <v>1.024963529984723</v>
+        <v>1.041638558143776</v>
       </c>
       <c r="K14">
-        <v>1.033346892300107</v>
+        <v>1.047875033111783</v>
       </c>
       <c r="L14">
-        <v>1.018640925699799</v>
+        <v>1.037825597418871</v>
       </c>
       <c r="M14">
-        <v>1.030950838075861</v>
+        <v>1.054156913304727</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9958822157904715</v>
+        <v>1.035161051891461</v>
       </c>
       <c r="D15">
-        <v>1.019167302119499</v>
+        <v>1.044414917623224</v>
       </c>
       <c r="E15">
-        <v>1.004183723254047</v>
+        <v>1.034330682759431</v>
       </c>
       <c r="F15">
-        <v>1.016805648221225</v>
+        <v>1.05073817281203</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046186374004671</v>
+        <v>1.041697056458752</v>
       </c>
       <c r="J15">
-        <v>1.025275175954695</v>
+        <v>1.041698426135414</v>
       </c>
       <c r="K15">
-        <v>1.033666610800576</v>
+        <v>1.047935470768542</v>
       </c>
       <c r="L15">
-        <v>1.018955678157648</v>
+        <v>1.037888178318228</v>
       </c>
       <c r="M15">
-        <v>1.031347237272263</v>
+        <v>1.054235960723754</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9988912210097747</v>
+        <v>1.035728297741929</v>
       </c>
       <c r="D16">
-        <v>1.021554583819778</v>
+        <v>1.04488097770419</v>
       </c>
       <c r="E16">
-        <v>1.006555846958644</v>
+        <v>1.034810714377112</v>
       </c>
       <c r="F16">
-        <v>1.0196462609279</v>
+        <v>1.051312314622947</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047322060702166</v>
+        <v>1.041868180094455</v>
       </c>
       <c r="J16">
-        <v>1.027071973117103</v>
+        <v>1.042046821663031</v>
       </c>
       <c r="K16">
-        <v>1.035509703931156</v>
+        <v>1.048287135222619</v>
       </c>
       <c r="L16">
-        <v>1.020771400937072</v>
+        <v>1.038252470899272</v>
       </c>
       <c r="M16">
-        <v>1.033633966940426</v>
+        <v>1.054696129823166</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.000755106737884</v>
+        <v>1.036084269765519</v>
       </c>
       <c r="D17">
-        <v>1.02303461296611</v>
+        <v>1.045173448994315</v>
       </c>
       <c r="E17">
-        <v>1.008027605361026</v>
+        <v>1.035112082841035</v>
       </c>
       <c r="F17">
-        <v>1.02140792129368</v>
+        <v>1.051672735002499</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048022521366123</v>
+        <v>1.041975158642328</v>
       </c>
       <c r="J17">
-        <v>1.028184298202137</v>
+        <v>1.042265305505037</v>
       </c>
       <c r="K17">
-        <v>1.036650466600457</v>
+        <v>1.048507628326747</v>
       </c>
       <c r="L17">
-        <v>1.021896330532125</v>
+        <v>1.038481020490178</v>
       </c>
       <c r="M17">
-        <v>1.035050722710362</v>
+        <v>1.054984850264516</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.00183400270922</v>
+        <v>1.036291957262284</v>
       </c>
       <c r="D18">
-        <v>1.023891750527632</v>
+        <v>1.045344086820764</v>
       </c>
       <c r="E18">
-        <v>1.008880359095233</v>
+        <v>1.035287958229672</v>
       </c>
       <c r="F18">
-        <v>1.022428379324777</v>
+        <v>1.051883061251677</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048426873498972</v>
+        <v>1.042037426476424</v>
       </c>
       <c r="J18">
-        <v>1.028827902232158</v>
+        <v>1.042392723123917</v>
       </c>
       <c r="K18">
-        <v>1.037310442454668</v>
+        <v>1.048636203026717</v>
       </c>
       <c r="L18">
-        <v>1.022547546564646</v>
+        <v>1.038614343115575</v>
       </c>
       <c r="M18">
-        <v>1.035870883140575</v>
+        <v>1.055153280305451</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.002200494885968</v>
+        <v>1.036362782633957</v>
       </c>
       <c r="D19">
-        <v>1.024182984950316</v>
+        <v>1.045402277375716</v>
       </c>
       <c r="E19">
-        <v>1.00917017292333</v>
+        <v>1.035347942797044</v>
       </c>
       <c r="F19">
-        <v>1.022775143766568</v>
+        <v>1.0519547938389</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048564039891788</v>
+        <v>1.042058635969661</v>
       </c>
       <c r="J19">
-        <v>1.029046484447784</v>
+        <v>1.042436165764052</v>
       </c>
       <c r="K19">
-        <v>1.037534570686236</v>
+        <v>1.048680037674345</v>
       </c>
       <c r="L19">
-        <v>1.022768767998126</v>
+        <v>1.038659804944707</v>
       </c>
       <c r="M19">
-        <v>1.036149497403236</v>
+        <v>1.055210714679108</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.000555990473696</v>
+        <v>1.036046071635564</v>
       </c>
       <c r="D20">
-        <v>1.022876458084888</v>
+        <v>1.045142065003332</v>
       </c>
       <c r="E20">
-        <v>1.007870292180595</v>
+        <v>1.035079739303295</v>
       </c>
       <c r="F20">
-        <v>1.021219649089315</v>
+        <v>1.05163405504176</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047947806348295</v>
+        <v>1.041963694396128</v>
       </c>
       <c r="J20">
-        <v>1.028065496432106</v>
+        <v>1.042241866350027</v>
       </c>
       <c r="K20">
-        <v>1.036528636061286</v>
+        <v>1.048483975136319</v>
       </c>
       <c r="L20">
-        <v>1.021776149432836</v>
+        <v>1.038456497876133</v>
       </c>
       <c r="M20">
-        <v>1.034899363815675</v>
+        <v>1.054953870771862</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9951107021770043</v>
+        <v>1.035017062880568</v>
       </c>
       <c r="D21">
-        <v>1.018555610337288</v>
+        <v>1.044296612961496</v>
       </c>
       <c r="E21">
-        <v>1.003576266720141</v>
+        <v>1.034208871486091</v>
       </c>
       <c r="F21">
-        <v>1.016077974549853</v>
+        <v>1.050592470690967</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045894250288583</v>
+        <v>1.041653492554026</v>
       </c>
       <c r="J21">
-        <v>1.024814274850208</v>
+        <v>1.041609943706073</v>
       </c>
       <c r="K21">
-        <v>1.033193766728671</v>
+        <v>1.047846145582814</v>
       </c>
       <c r="L21">
-        <v>1.018490200917337</v>
+        <v>1.03779568825824</v>
       </c>
       <c r="M21">
-        <v>1.030761015367883</v>
+        <v>1.054119134729925</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9916075931344035</v>
+        <v>1.034370587555381</v>
       </c>
       <c r="D22">
-        <v>1.015780331537657</v>
+        <v>1.043765452350917</v>
       </c>
       <c r="E22">
-        <v>1.000821942543348</v>
+        <v>1.033662163563671</v>
       </c>
       <c r="F22">
-        <v>1.012777301405802</v>
+        <v>1.049938488430096</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044563306766008</v>
+        <v>1.041457280958862</v>
       </c>
       <c r="J22">
-        <v>1.022720608466411</v>
+        <v>1.041212452741867</v>
       </c>
       <c r="K22">
-        <v>1.03104552755967</v>
+        <v>1.047444807058329</v>
       </c>
       <c r="L22">
-        <v>1.016377134157886</v>
+        <v>1.037380340318344</v>
       </c>
       <c r="M22">
-        <v>1.028099817080202</v>
+        <v>1.053594530518802</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.993472433532732</v>
+        <v>1.034713248284116</v>
       </c>
       <c r="D23">
-        <v>1.017257278809376</v>
+        <v>1.04404699143019</v>
       </c>
       <c r="E23">
-        <v>1.002287387410259</v>
+        <v>1.033951903550387</v>
       </c>
       <c r="F23">
-        <v>1.014533690152016</v>
+        <v>1.050285090705078</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045272728714581</v>
+        <v>1.041561407643034</v>
       </c>
       <c r="J23">
-        <v>1.02383532730671</v>
+        <v>1.041423186584053</v>
       </c>
       <c r="K23">
-        <v>1.03218936615088</v>
+        <v>1.04765759321093</v>
       </c>
       <c r="L23">
-        <v>1.017501902146284</v>
+        <v>1.037600511498988</v>
       </c>
       <c r="M23">
-        <v>1.029516352425802</v>
+        <v>1.053872611157134</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.000645988070295</v>
+        <v>1.036063331556299</v>
       </c>
       <c r="D24">
-        <v>1.022947940403442</v>
+        <v>1.045156245941312</v>
       </c>
       <c r="E24">
-        <v>1.0079413928113</v>
+        <v>1.035094353670877</v>
       </c>
       <c r="F24">
-        <v>1.021304743058588</v>
+        <v>1.051651532544882</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047981579854495</v>
+        <v>1.041968875000159</v>
       </c>
       <c r="J24">
-        <v>1.028119193868687</v>
+        <v>1.042252457558098</v>
       </c>
       <c r="K24">
-        <v>1.03658370273332</v>
+        <v>1.048494663103791</v>
       </c>
       <c r="L24">
-        <v>1.021830469326463</v>
+        <v>1.038467578548208</v>
       </c>
       <c r="M24">
-        <v>1.034967775538997</v>
+        <v>1.054967868996161</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.008647908496832</v>
+        <v>1.037632183130363</v>
       </c>
       <c r="D25">
-        <v>1.02931226981638</v>
+        <v>1.046445205547308</v>
       </c>
       <c r="E25">
-        <v>1.014280407021636</v>
+        <v>1.036423717410374</v>
       </c>
       <c r="F25">
-        <v>1.028885852956365</v>
+        <v>1.053241096009777</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050960503909415</v>
+        <v>1.042436579300922</v>
       </c>
       <c r="J25">
-        <v>1.032887700289928</v>
+        <v>1.043213980036389</v>
       </c>
       <c r="K25">
-        <v>1.041471974831677</v>
+        <v>1.04946465153743</v>
       </c>
       <c r="L25">
-        <v>1.026661010180923</v>
+        <v>1.039474287816732</v>
       </c>
       <c r="M25">
-        <v>1.041051711580545</v>
+        <v>1.056239803142023</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_226/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_226/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.038885193359007</v>
+        <v>1.014793374973211</v>
       </c>
       <c r="D2">
-        <v>1.047474620495898</v>
+        <v>1.034211209555908</v>
       </c>
       <c r="E2">
-        <v>1.037486875509379</v>
+        <v>1.019172461827636</v>
       </c>
       <c r="F2">
-        <v>1.054512006590757</v>
+        <v>1.034729072710588</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042805451800082</v>
+        <v>1.053212512064584</v>
       </c>
       <c r="J2">
-        <v>1.04398020588261</v>
+        <v>1.03654044557004</v>
       </c>
       <c r="K2">
-        <v>1.050237156097804</v>
+        <v>1.045213647044501</v>
       </c>
       <c r="L2">
-        <v>1.040277620747508</v>
+        <v>1.030371002511377</v>
       </c>
       <c r="M2">
-        <v>1.057255013447404</v>
+        <v>1.045724884230251</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.039795956732021</v>
+        <v>1.019128686373226</v>
       </c>
       <c r="D3">
-        <v>1.048222821768606</v>
+        <v>1.037672646907705</v>
       </c>
       <c r="E3">
-        <v>1.03826045660304</v>
+        <v>1.022636358945575</v>
       </c>
       <c r="F3">
-        <v>1.05543656121392</v>
+        <v>1.038862553721333</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04307085780012</v>
+        <v>1.054779708423337</v>
       </c>
       <c r="J3">
-        <v>1.044536140879971</v>
+        <v>1.039111127611356</v>
       </c>
       <c r="K3">
-        <v>1.050797373964917</v>
+        <v>1.047845164115746</v>
       </c>
       <c r="L3">
-        <v>1.040861115461958</v>
+        <v>1.032987569631549</v>
       </c>
       <c r="M3">
-        <v>1.057992541464523</v>
+        <v>1.049021203053182</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.040385722909166</v>
+        <v>1.021878433148088</v>
       </c>
       <c r="D4">
-        <v>1.04870729900636</v>
+        <v>1.039870366882375</v>
       </c>
       <c r="E4">
-        <v>1.038761763015982</v>
+        <v>1.024839044559225</v>
       </c>
       <c r="F4">
-        <v>1.056035616432426</v>
+        <v>1.041489338223865</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043241465887922</v>
+        <v>1.055763541303785</v>
       </c>
       <c r="J4">
-        <v>1.04489567114256</v>
+        <v>1.040738573826009</v>
       </c>
       <c r="K4">
-        <v>1.051159547367155</v>
+        <v>1.049510275763473</v>
       </c>
       <c r="L4">
-        <v>1.041238763503105</v>
+        <v>1.034646649475778</v>
       </c>
       <c r="M4">
-        <v>1.058469947131738</v>
+        <v>1.051111539716848</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.040633765116262</v>
+        <v>1.023021590630307</v>
       </c>
       <c r="D5">
-        <v>1.04891105341903</v>
+        <v>1.040784525275952</v>
       </c>
       <c r="E5">
-        <v>1.038972689765685</v>
+        <v>1.025756087573417</v>
       </c>
       <c r="F5">
-        <v>1.05628765084645</v>
+        <v>1.042582557965354</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043312918977299</v>
+        <v>1.056170070817132</v>
       </c>
       <c r="J5">
-        <v>1.045046769503286</v>
+        <v>1.041414391912987</v>
       </c>
       <c r="K5">
-        <v>1.051311726152447</v>
+        <v>1.050201525732257</v>
       </c>
       <c r="L5">
-        <v>1.041397546672969</v>
+        <v>1.035336223853418</v>
       </c>
       <c r="M5">
-        <v>1.058670689250998</v>
+        <v>1.051980426132856</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.040675418588942</v>
+        <v>1.023212791726783</v>
       </c>
       <c r="D6">
-        <v>1.04894526934122</v>
+        <v>1.040937452632313</v>
       </c>
       <c r="E6">
-        <v>1.03900811566296</v>
+        <v>1.025909545712233</v>
       </c>
       <c r="F6">
-        <v>1.056329979725796</v>
+        <v>1.042765475217232</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043324900380952</v>
+        <v>1.056237918821334</v>
       </c>
       <c r="J6">
-        <v>1.045072136728648</v>
+        <v>1.041527381481857</v>
       </c>
       <c r="K6">
-        <v>1.051337272980572</v>
+        <v>1.050317082884435</v>
       </c>
       <c r="L6">
-        <v>1.041424208202201</v>
+        <v>1.035451549780412</v>
       </c>
       <c r="M6">
-        <v>1.058704397089772</v>
+        <v>1.052125744653036</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.040389036852083</v>
+        <v>1.021893757932673</v>
       </c>
       <c r="D7">
-        <v>1.048710021269555</v>
+        <v>1.039882619877404</v>
       </c>
       <c r="E7">
-        <v>1.038764580733797</v>
+        <v>1.024851332980506</v>
       </c>
       <c r="F7">
-        <v>1.056038983377611</v>
+        <v>1.041503988932252</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043242421711505</v>
+        <v>1.055769000949682</v>
       </c>
       <c r="J7">
-        <v>1.04489769031679</v>
+        <v>1.040747636670289</v>
       </c>
       <c r="K7">
-        <v>1.051161581098988</v>
+        <v>1.049519546386191</v>
       </c>
       <c r="L7">
-        <v>1.041240885094674</v>
+        <v>1.034655894344316</v>
       </c>
       <c r="M7">
-        <v>1.058472629299155</v>
+        <v>1.051123188286966</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.039192898017556</v>
+        <v>1.01627028003547</v>
       </c>
       <c r="D8">
-        <v>1.047727407144432</v>
+        <v>1.035389916710208</v>
       </c>
       <c r="E8">
-        <v>1.037748155157599</v>
+        <v>1.020351295023219</v>
       </c>
       <c r="F8">
-        <v>1.054824296255552</v>
+        <v>1.036136142378986</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042895380024912</v>
+        <v>1.053748519970803</v>
       </c>
       <c r="J8">
-        <v>1.044168126856006</v>
+        <v>1.037416817741759</v>
       </c>
       <c r="K8">
-        <v>1.050426550982895</v>
+        <v>1.046110932958262</v>
       </c>
       <c r="L8">
-        <v>1.040474796635115</v>
+        <v>1.03126247471451</v>
       </c>
       <c r="M8">
-        <v>1.057504227332396</v>
+        <v>1.046847901640096</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.03708858019922</v>
+        <v>1.005914741443517</v>
       </c>
       <c r="D9">
-        <v>1.045998591054991</v>
+        <v>1.02713654984352</v>
       </c>
       <c r="E9">
-        <v>1.035962875018762</v>
+        <v>1.012111358765866</v>
       </c>
       <c r="F9">
-        <v>1.052690105431475</v>
+        <v>1.026293011666512</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042275243440337</v>
+        <v>1.049948554526348</v>
       </c>
       <c r="J9">
-        <v>1.042881080812116</v>
+        <v>1.03126035003046</v>
       </c>
       <c r="K9">
-        <v>1.049128893447743</v>
+        <v>1.039804180131443</v>
       </c>
       <c r="L9">
-        <v>1.039125573907679</v>
+        <v>1.025010946911128</v>
       </c>
       <c r="M9">
-        <v>1.055799182211702</v>
+        <v>1.038973435085761</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.035688076950097</v>
+        <v>0.9986794481849085</v>
       </c>
       <c r="D10">
-        <v>1.044847931657325</v>
+        <v>1.021386484991282</v>
       </c>
       <c r="E10">
-        <v>1.034776669358332</v>
+        <v>1.006388742786966</v>
       </c>
       <c r="F10">
-        <v>1.051271597099869</v>
+        <v>1.019446204052078</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041856072786135</v>
+        <v>1.047242325693797</v>
       </c>
       <c r="J10">
-        <v>1.042022128161583</v>
+        <v>1.026945557841247</v>
       </c>
       <c r="K10">
-        <v>1.048262212642426</v>
+        <v>1.035380045665397</v>
       </c>
       <c r="L10">
-        <v>1.038226644450435</v>
+        <v>1.020643596705971</v>
       </c>
       <c r="M10">
-        <v>1.054663504951023</v>
+        <v>1.033473008946535</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.035082220986127</v>
+        <v>0.9954602187334002</v>
       </c>
       <c r="D11">
-        <v>1.044350148371967</v>
+        <v>1.018832702314898</v>
       </c>
       <c r="E11">
-        <v>1.034263991724344</v>
+        <v>1.003851422695143</v>
       </c>
       <c r="F11">
-        <v>1.050658402151112</v>
+        <v>1.016407597003419</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041673212433681</v>
+        <v>1.046026636190905</v>
       </c>
       <c r="J11">
-        <v>1.041649986192983</v>
+        <v>1.02502308509852</v>
       </c>
       <c r="K11">
-        <v>1.047886570081208</v>
+        <v>1.033407991004758</v>
       </c>
       <c r="L11">
-        <v>1.037837542904706</v>
+        <v>1.018701070496897</v>
       </c>
       <c r="M11">
-        <v>1.054172001844733</v>
+        <v>1.031026584409017</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.034857266005836</v>
+        <v>0.9942507890525871</v>
       </c>
       <c r="D12">
-        <v>1.044165320004256</v>
+        <v>1.017874031301448</v>
       </c>
       <c r="E12">
-        <v>1.034073705699175</v>
+        <v>1.002899571923384</v>
       </c>
       <c r="F12">
-        <v>1.050430790222488</v>
+        <v>1.015267241941267</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041605086749761</v>
+        <v>1.0455682220296</v>
       </c>
       <c r="J12">
-        <v>1.041511725570838</v>
+        <v>1.024300474702834</v>
       </c>
       <c r="K12">
-        <v>1.047746986076883</v>
+        <v>1.032666621955868</v>
       </c>
       <c r="L12">
-        <v>1.037693035519498</v>
+        <v>1.017971430753103</v>
       </c>
       <c r="M12">
-        <v>1.053989474915377</v>
+        <v>1.030107676600257</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.034905515662821</v>
+        <v>0.9945108459189426</v>
       </c>
       <c r="D13">
-        <v>1.044204963103031</v>
+        <v>1.018080133657652</v>
       </c>
       <c r="E13">
-        <v>1.034114516100081</v>
+        <v>1.003104179100227</v>
       </c>
       <c r="F13">
-        <v>1.050479606672133</v>
+        <v>1.015512390287095</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041619709125786</v>
+        <v>1.045666867920307</v>
       </c>
       <c r="J13">
-        <v>1.041541384308975</v>
+        <v>1.024455869018312</v>
       </c>
       <c r="K13">
-        <v>1.047776929729502</v>
+        <v>1.032826055625243</v>
       </c>
       <c r="L13">
-        <v>1.037724031819579</v>
+        <v>1.018128313686726</v>
       </c>
       <c r="M13">
-        <v>1.054028625766946</v>
+        <v>1.030305254855054</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.035063624358239</v>
+        <v>0.9953605298600018</v>
       </c>
       <c r="D14">
-        <v>1.044334868954852</v>
+        <v>1.018753666786256</v>
       </c>
       <c r="E14">
-        <v>1.034248259650136</v>
+        <v>1.003772936435106</v>
       </c>
       <c r="F14">
-        <v>1.050639584487771</v>
+        <v>1.016313576672625</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041667585285164</v>
+        <v>1.045988884903438</v>
       </c>
       <c r="J14">
-        <v>1.041638558143776</v>
+        <v>1.024963529984722</v>
       </c>
       <c r="K14">
-        <v>1.047875033111783</v>
+        <v>1.033346892300105</v>
       </c>
       <c r="L14">
-        <v>1.037825597418871</v>
+        <v>1.018640925699797</v>
       </c>
       <c r="M14">
-        <v>1.054156913304727</v>
+        <v>1.030950838075859</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.035161051891461</v>
+        <v>0.9958822157904705</v>
       </c>
       <c r="D15">
-        <v>1.044414917623224</v>
+        <v>1.019167302119498</v>
       </c>
       <c r="E15">
-        <v>1.034330682759431</v>
+        <v>1.004183723254046</v>
       </c>
       <c r="F15">
-        <v>1.05073817281203</v>
+        <v>1.016805648221223</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041697056458752</v>
+        <v>1.04618637400467</v>
       </c>
       <c r="J15">
-        <v>1.041698426135414</v>
+        <v>1.025275175954694</v>
       </c>
       <c r="K15">
-        <v>1.047935470768542</v>
+        <v>1.033666610800575</v>
       </c>
       <c r="L15">
-        <v>1.037888178318228</v>
+        <v>1.018955678157647</v>
       </c>
       <c r="M15">
-        <v>1.054235960723754</v>
+        <v>1.031347237272261</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.035728297741929</v>
+        <v>0.9988912210097736</v>
       </c>
       <c r="D16">
-        <v>1.04488097770419</v>
+        <v>1.021554583819777</v>
       </c>
       <c r="E16">
-        <v>1.034810714377112</v>
+        <v>1.006555846958643</v>
       </c>
       <c r="F16">
-        <v>1.051312314622947</v>
+        <v>1.019646260927899</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041868180094455</v>
+        <v>1.047322060702165</v>
       </c>
       <c r="J16">
-        <v>1.042046821663031</v>
+        <v>1.027071973117101</v>
       </c>
       <c r="K16">
-        <v>1.048287135222619</v>
+        <v>1.035509703931155</v>
       </c>
       <c r="L16">
-        <v>1.038252470899272</v>
+        <v>1.020771400937071</v>
       </c>
       <c r="M16">
-        <v>1.054696129823166</v>
+        <v>1.033633966940425</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.036084269765519</v>
+        <v>1.000755106737883</v>
       </c>
       <c r="D17">
-        <v>1.045173448994315</v>
+        <v>1.023034612966109</v>
       </c>
       <c r="E17">
-        <v>1.035112082841035</v>
+        <v>1.008027605361026</v>
       </c>
       <c r="F17">
-        <v>1.051672735002499</v>
+        <v>1.02140792129368</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041975158642328</v>
+        <v>1.048022521366123</v>
       </c>
       <c r="J17">
-        <v>1.042265305505037</v>
+        <v>1.028184298202137</v>
       </c>
       <c r="K17">
-        <v>1.048507628326747</v>
+        <v>1.036650466600456</v>
       </c>
       <c r="L17">
-        <v>1.038481020490178</v>
+        <v>1.021896330532125</v>
       </c>
       <c r="M17">
-        <v>1.054984850264516</v>
+        <v>1.035050722710362</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.036291957262284</v>
+        <v>1.00183400270922</v>
       </c>
       <c r="D18">
-        <v>1.045344086820764</v>
+        <v>1.023891750527632</v>
       </c>
       <c r="E18">
-        <v>1.035287958229672</v>
+        <v>1.008880359095233</v>
       </c>
       <c r="F18">
-        <v>1.051883061251677</v>
+        <v>1.022428379324777</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042037426476424</v>
+        <v>1.048426873498973</v>
       </c>
       <c r="J18">
-        <v>1.042392723123917</v>
+        <v>1.028827902232158</v>
       </c>
       <c r="K18">
-        <v>1.048636203026717</v>
+        <v>1.037310442454668</v>
       </c>
       <c r="L18">
-        <v>1.038614343115575</v>
+        <v>1.022547546564646</v>
       </c>
       <c r="M18">
-        <v>1.055153280305451</v>
+        <v>1.035870883140575</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.036362782633957</v>
+        <v>1.002200494885968</v>
       </c>
       <c r="D19">
-        <v>1.045402277375716</v>
+        <v>1.024182984950316</v>
       </c>
       <c r="E19">
-        <v>1.035347942797044</v>
+        <v>1.009170172923329</v>
       </c>
       <c r="F19">
-        <v>1.0519547938389</v>
+        <v>1.022775143766568</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042058635969661</v>
+        <v>1.048564039891787</v>
       </c>
       <c r="J19">
-        <v>1.042436165764052</v>
+        <v>1.029046484447783</v>
       </c>
       <c r="K19">
-        <v>1.048680037674345</v>
+        <v>1.037534570686236</v>
       </c>
       <c r="L19">
-        <v>1.038659804944707</v>
+        <v>1.022768767998125</v>
       </c>
       <c r="M19">
-        <v>1.055210714679108</v>
+        <v>1.036149497403235</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.036046071635564</v>
+        <v>1.000555990473696</v>
       </c>
       <c r="D20">
-        <v>1.045142065003332</v>
+        <v>1.022876458084888</v>
       </c>
       <c r="E20">
-        <v>1.035079739303295</v>
+        <v>1.007870292180594</v>
       </c>
       <c r="F20">
-        <v>1.05163405504176</v>
+        <v>1.021219649089315</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041963694396128</v>
+        <v>1.047947806348295</v>
       </c>
       <c r="J20">
-        <v>1.042241866350027</v>
+        <v>1.028065496432105</v>
       </c>
       <c r="K20">
-        <v>1.048483975136319</v>
+        <v>1.036528636061286</v>
       </c>
       <c r="L20">
-        <v>1.038456497876133</v>
+        <v>1.021776149432835</v>
       </c>
       <c r="M20">
-        <v>1.054953870771862</v>
+        <v>1.034899363815675</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.035017062880568</v>
+        <v>0.9951107021770035</v>
       </c>
       <c r="D21">
-        <v>1.044296612961496</v>
+        <v>1.018555610337287</v>
       </c>
       <c r="E21">
-        <v>1.034208871486091</v>
+        <v>1.00357626672014</v>
       </c>
       <c r="F21">
-        <v>1.050592470690967</v>
+        <v>1.016077974549853</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041653492554026</v>
+        <v>1.045894250288582</v>
       </c>
       <c r="J21">
-        <v>1.041609943706073</v>
+        <v>1.024814274850208</v>
       </c>
       <c r="K21">
-        <v>1.047846145582814</v>
+        <v>1.033193766728671</v>
       </c>
       <c r="L21">
-        <v>1.03779568825824</v>
+        <v>1.018490200917336</v>
       </c>
       <c r="M21">
-        <v>1.054119134729925</v>
+        <v>1.030761015367882</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.034370587555381</v>
+        <v>0.9916075931344052</v>
       </c>
       <c r="D22">
-        <v>1.043765452350917</v>
+        <v>1.015780331537659</v>
       </c>
       <c r="E22">
-        <v>1.033662163563671</v>
+        <v>1.00082194254335</v>
       </c>
       <c r="F22">
-        <v>1.049938488430096</v>
+        <v>1.012777301405803</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041457280958862</v>
+        <v>1.044563306766009</v>
       </c>
       <c r="J22">
-        <v>1.041212452741867</v>
+        <v>1.022720608466413</v>
       </c>
       <c r="K22">
-        <v>1.047444807058329</v>
+        <v>1.031045527559671</v>
       </c>
       <c r="L22">
-        <v>1.037380340318344</v>
+        <v>1.016377134157887</v>
       </c>
       <c r="M22">
-        <v>1.053594530518802</v>
+        <v>1.028099817080204</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.034713248284116</v>
+        <v>0.9934724335327331</v>
       </c>
       <c r="D23">
-        <v>1.04404699143019</v>
+        <v>1.017257278809378</v>
       </c>
       <c r="E23">
-        <v>1.033951903550387</v>
+        <v>1.00228738741026</v>
       </c>
       <c r="F23">
-        <v>1.050285090705078</v>
+        <v>1.014533690152018</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041561407643034</v>
+        <v>1.045272728714582</v>
       </c>
       <c r="J23">
-        <v>1.041423186584053</v>
+        <v>1.02383532730671</v>
       </c>
       <c r="K23">
-        <v>1.04765759321093</v>
+        <v>1.032189366150881</v>
       </c>
       <c r="L23">
-        <v>1.037600511498988</v>
+        <v>1.017501902146285</v>
       </c>
       <c r="M23">
-        <v>1.053872611157134</v>
+        <v>1.029516352425803</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.036063331556299</v>
+        <v>1.000645988070295</v>
       </c>
       <c r="D24">
-        <v>1.045156245941312</v>
+        <v>1.022947940403441</v>
       </c>
       <c r="E24">
-        <v>1.035094353670877</v>
+        <v>1.007941392811299</v>
       </c>
       <c r="F24">
-        <v>1.051651532544882</v>
+        <v>1.021304743058587</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041968875000159</v>
+        <v>1.047981579854494</v>
       </c>
       <c r="J24">
-        <v>1.042252457558098</v>
+        <v>1.028119193868686</v>
       </c>
       <c r="K24">
-        <v>1.048494663103791</v>
+        <v>1.036583702733318</v>
       </c>
       <c r="L24">
-        <v>1.038467578548208</v>
+        <v>1.021830469326462</v>
       </c>
       <c r="M24">
-        <v>1.054967868996161</v>
+        <v>1.034967775538996</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.037632183130363</v>
+        <v>1.008647908496832</v>
       </c>
       <c r="D25">
-        <v>1.046445205547308</v>
+        <v>1.029312269816379</v>
       </c>
       <c r="E25">
-        <v>1.036423717410374</v>
+        <v>1.014280407021636</v>
       </c>
       <c r="F25">
-        <v>1.053241096009777</v>
+        <v>1.028885852956365</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042436579300922</v>
+        <v>1.050960503909415</v>
       </c>
       <c r="J25">
-        <v>1.043213980036389</v>
+        <v>1.032887700289928</v>
       </c>
       <c r="K25">
-        <v>1.04946465153743</v>
+        <v>1.041471974831677</v>
       </c>
       <c r="L25">
-        <v>1.039474287816732</v>
+        <v>1.026661010180922</v>
       </c>
       <c r="M25">
-        <v>1.056239803142023</v>
+        <v>1.041051711580545</v>
       </c>
     </row>
   </sheetData>
